--- a/SkillEval/public/templates/AdicionarAlunos.xlsx
+++ b/SkillEval/public/templates/AdicionarAlunos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\egcp0\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE0AAE2-17B9-488D-A75A-A9AA3C5D8524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B6BA00C-B16A-4199-BB4A-5C4E8712F3D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{95FF2C93-3E28-4BD2-AFA1-87CFA8472345}"/>
+    <workbookView xWindow="-26475" yWindow="1905" windowWidth="25800" windowHeight="13530" xr2:uid="{831C8541-29D6-4DCC-822A-A8E4C2767BA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Alunos" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Nº de Formando</t>
   </si>
@@ -50,37 +50,13 @@
     <t>Data de Nascimento (DD/MM/AAAA)</t>
   </si>
   <si>
-    <t>T0111782</t>
-  </si>
-  <si>
-    <t>T0111933</t>
-  </si>
-  <si>
-    <t>T0111994</t>
-  </si>
-  <si>
-    <t>T1125935</t>
-  </si>
-  <si>
-    <t>T0111452</t>
-  </si>
-  <si>
     <t>Nome Segundo Terceiro Apelido</t>
   </si>
   <si>
-    <t>Nome.Apelido.T0111452@edu.atec.pt</t>
-  </si>
-  <si>
-    <t>Nome.Apelido.T0111782@edu.atec.pt</t>
-  </si>
-  <si>
-    <t>Nome.Apelido.T0111933@edu.atec.pt</t>
-  </si>
-  <si>
-    <t>Nome.Apelido.T0111994@edu.atec.pt</t>
-  </si>
-  <si>
-    <t>Nome.Apelido.T1125935@edu.atec.pt</t>
+    <t>T0000000</t>
+  </si>
+  <si>
+    <t>Nome.Apelido.T0000000@edu.atec.pt</t>
   </si>
 </sst>
 </file>
@@ -468,19 +444,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCD625BC-83F5-47F0-9F55-284BAEEAD7E1}">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8064D00-FD69-4D8E-8B1A-4064F92C9447}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
-    <col min="2" max="2" width="30" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" customWidth="1"/>
-    <col min="4" max="4" width="35" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" customWidth="1"/>
+    <col min="3" max="3" width="40.85546875" customWidth="1"/>
+    <col min="4" max="4" width="35.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -499,81 +475,21 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D2" s="4">
-        <v>37812</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="4">
-        <v>37830</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="4">
-        <v>37819</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="4">
-        <v>37817</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="4">
-        <v>37822</v>
+        <v>38139</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{E517DE51-7BCC-4F07-8E0D-B16838FFF592}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{FCF77005-4DB7-48FD-8C24-68AEA2393F7E}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{4749EBB7-E437-40F7-86DB-22B14385DA88}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{42A3582B-E1C6-4288-B45E-E05F4F3273A1}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{1A369180-AD16-4E40-8C1A-F8FCC3BADE33}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{C3448D6F-17B0-4598-9DDB-05AEC74DA868}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SkillEval/public/templates/AdicionarAlunos.xlsx
+++ b/SkillEval/public/templates/AdicionarAlunos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\egcp0\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B6BA00C-B16A-4199-BB4A-5C4E8712F3D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97D9E7C9-4400-4A3B-ABA7-AF90F9BD7619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26475" yWindow="1905" windowWidth="25800" windowHeight="13530" xr2:uid="{831C8541-29D6-4DCC-822A-A8E4C2767BA7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{831C8541-29D6-4DCC-822A-A8E4C2767BA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Alunos" sheetId="1" r:id="rId1"/>
@@ -118,7 +118,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
@@ -130,6 +130,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperligação" xfId="1" builtinId="8"/>
@@ -447,16 +449,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8064D00-FD69-4D8E-8B1A-4064F92C9447}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.140625" customWidth="1"/>
     <col min="2" max="2" width="36.7109375" customWidth="1"/>
     <col min="3" max="3" width="40.85546875" customWidth="1"/>
-    <col min="4" max="4" width="35.5703125" customWidth="1"/>
+    <col min="4" max="4" width="35.5703125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -469,7 +469,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
     </row>
